--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N2">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O2">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P2">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q2">
-        <v>0.9951862097888888</v>
+        <v>0.4906872865555555</v>
       </c>
       <c r="R2">
-        <v>8.956675888100001</v>
+        <v>4.416185579</v>
       </c>
       <c r="S2">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="T2">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>53.874554</v>
       </c>
       <c r="O3">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P3">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q3">
         <v>0.4456263664417778</v>
       </c>
       <c r="R3">
-        <v>4.010637297976001</v>
+        <v>4.010637297976</v>
       </c>
       <c r="S3">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="T3">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N4">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O4">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P4">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q4">
-        <v>0.2608321806848889</v>
+        <v>0.3093719764488889</v>
       </c>
       <c r="R4">
-        <v>2.347489626164</v>
+        <v>2.78434778804</v>
       </c>
       <c r="S4">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="T4">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N5">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O5">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P5">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q5">
-        <v>0.1163041093466667</v>
+        <v>0.01473244278533333</v>
       </c>
       <c r="R5">
-        <v>0.6978246560800001</v>
+        <v>0.08839465671199999</v>
       </c>
       <c r="S5">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="T5">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N6">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O6">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P6">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q6">
-        <v>0.153850362596</v>
+        <v>0.1911527207582222</v>
       </c>
       <c r="R6">
-        <v>1.384653263364</v>
+        <v>1.720374486824</v>
       </c>
       <c r="S6">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="T6">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
     </row>
   </sheetData>
